--- a/experiment_resources/trainspecs_dictionary_description.xlsx
+++ b/experiment_resources/trainspecs_dictionary_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajw2\Documents\my code\noise-gan\experiment_resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajw2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC58A1-6165-4C11-B33C-E7A8304806EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD0A29-E9B0-42E8-9AC0-6EB0D0F49C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="300" windowWidth="16152" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="4140" windowWidth="22665" windowHeight="18330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration_dictionary_descri" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -37,30 +37,15 @@
     <t>save_model</t>
   </si>
   <si>
-    <t>Save model checkpoint and training information to "./model_results" directory</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>Train GAN starting from checkpoint path</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>epochs</t>
   </si>
   <si>
-    <t>Number of GAN training epochs</t>
-  </si>
-  <si>
     <t>D_updates</t>
   </si>
   <si>
-    <t>Number of Discriminator updates to every 1 Generator updates</t>
-  </si>
-  <si>
     <t>eval_model</t>
   </si>
   <si>
@@ -127,15 +112,6 @@
     <t>Maximum 1D convolutional kernel length</t>
   </si>
   <si>
-    <t>receptive_field_type</t>
-  </si>
-  <si>
-    <t>Define uniform kernel lengths across layers (standard) or progressively scaled kernels (kernel)</t>
-  </si>
-  <si>
-    <t>kernel</t>
-  </si>
-  <si>
     <t>gan_bias</t>
   </si>
   <si>
@@ -184,42 +160,18 @@
     <t>dataset_specs</t>
   </si>
   <si>
-    <t>Dataset related attributes</t>
-  </si>
-  <si>
     <t>data_scaler</t>
   </si>
   <si>
-    <t>Data-scaling setting</t>
-  </si>
-  <si>
-    <t>global_min_max</t>
-  </si>
-  <si>
     <t>data_set</t>
   </si>
   <si>
-    <t>path to target distribution training dataset</t>
-  </si>
-  <si>
-    <t>num_samples</t>
-  </si>
-  <si>
-    <t>number of samples in training set</t>
-  </si>
-  <si>
     <t>pad_signal</t>
   </si>
   <si>
-    <t>length to zero-pad target distribution singals (used for STFTGAN and WaveGAN)</t>
-  </si>
-  <si>
     <t>stft</t>
   </si>
   <si>
-    <t>Use STFTGAN and transform distribution to STFT representation</t>
-  </si>
-  <si>
     <t>nperseg</t>
   </si>
   <si>
@@ -229,9 +181,6 @@
     <t>fft_shift</t>
   </si>
   <si>
-    <t>Shift STFTs to have zero-frequency components</t>
-  </si>
-  <si>
     <t>transform_type</t>
   </si>
   <si>
@@ -241,24 +190,15 @@
     <t>noverlap</t>
   </si>
   <si>
-    <t>Window overlap percentage</t>
-  </si>
-  <si>
     <t>data_rep</t>
   </si>
   <si>
-    <t>Data representation used for target data</t>
-  </si>
-  <si>
     <t>IQ</t>
   </si>
   <si>
     <t>quantize</t>
   </si>
   <si>
-    <t>Use quantile transformation on target data</t>
-  </si>
-  <si>
     <t>optim_params</t>
   </si>
   <si>
@@ -293,6 +233,66 @@
   </si>
   <si>
     <t>Turn WaveGAN phase shuffle layers on</t>
+  </si>
+  <si>
+    <t>Save model training details to "./model_results" directory</t>
+  </si>
+  <si>
+    <t>Number of training epochs</t>
+  </si>
+  <si>
+    <t>Number of discriminator updates for every one generator update</t>
+  </si>
+  <si>
+    <t>feature_min_max</t>
+  </si>
+  <si>
+    <t>Data scaling applied prior to training</t>
+  </si>
+  <si>
+    <t>zero-pad target distribution signals if necessary</t>
+  </si>
+  <si>
+    <t>FBM/FBM_fixed_H50</t>
+  </si>
+  <si>
+    <t>path to target distribution training set</t>
+  </si>
+  <si>
+    <t>STFT window overlap proportion</t>
+  </si>
+  <si>
+    <t>Swap halves of STFT FFTs so that zero-frequency component is in center</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>"uniform" or "gaussian"</t>
+  </si>
+  <si>
+    <t>"kaiming_normal" or "orthogonal"</t>
+  </si>
+  <si>
+    <t>"2" or "4"</t>
+  </si>
+  <si>
+    <t>"feature_min_max" (feature-based min-max scaling), "global_min_max" (global min-max scaling), or "None"</t>
+  </si>
+  <si>
+    <t>Data representation used for complex-valued target data</t>
+  </si>
+  <si>
+    <t>"IQ" (real, imaginary), "log_mag_IF" (log magnitude, instanteous frequency), "log_mag_IQ" (log magnitude, real, imaginary)</t>
+  </si>
+  <si>
+    <t>Quantile transformation on target data</t>
+  </si>
+  <si>
+    <t>If TRUE, default WaveGAN parameters are set by update_specs_params in main.py.</t>
+  </si>
+  <si>
+    <t>"None", "channel" (channel-based, e.g., separately transform real &amp; imaginary channels), "feature" (feature-based, i.e., separately transform each STFT pixel or time sample)</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,6 +809,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,21 +1171,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1192,521 +1199,512 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E15" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1">
+        <v>128</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E29" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1">
+        <v>128</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D33" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D35" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
